--- a/daten/notfallstationen_lu.xlsx
+++ b/daten/notfallstationen_lu.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a87f39a522517ac/FHGR/4. Semester/Masterthesis/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{D1F98789-74C2-7543-BA0B-7C04A67C9A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D2D0DB0-86F2-8141-8B3E-BAF0C96A5127}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AB0344-D1FF-B54C-A0EE-6A70F3908297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="3520" windowWidth="27440" windowHeight="16240" xr2:uid="{703E470E-EBFD-0D4E-94A4-7298E40D5768}"/>
+    <workbookView xWindow="7900" yWindow="-20180" windowWidth="27440" windowHeight="16240" xr2:uid="{703E470E-EBFD-0D4E-94A4-7298E40D5768}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Klinik</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Ort</t>
   </si>
   <si>
-    <t>Anzahl</t>
-  </si>
-  <si>
-    <t>Notfallstationen Luxemburg</t>
-  </si>
-  <si>
     <t>Clinique Sainte Marie</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>ZithaKlinik</t>
   </si>
   <si>
-    <t>Av. Lucien Salentiny 120</t>
-  </si>
-  <si>
     <t>Ettelbruck</t>
   </si>
   <si>
@@ -95,48 +86,62 @@
     <t>Eich</t>
   </si>
   <si>
-    <t>Rue Grande-Duschess Charlotte</t>
-  </si>
-  <si>
-    <t>Rue d'Eich</t>
-  </si>
-  <si>
-    <t>Rue Ernest Barblé 4</t>
-  </si>
-  <si>
-    <t>Rue Edward Steichen</t>
-  </si>
-  <si>
     <t>Luxemburg</t>
   </si>
   <si>
-    <t>Rue d'Anvers</t>
-  </si>
-  <si>
     <t>Hôpitaux Robert Schuman</t>
   </si>
   <si>
-    <t>Rue Wurth-Paquet</t>
-  </si>
-  <si>
     <t>Rue Emile Mayrisch</t>
   </si>
   <si>
     <t>Rue de l'Hôpital 98</t>
   </si>
   <si>
-    <t>Avenue de la Liberté</t>
-  </si>
-  <si>
     <t>Kirchberg, Clinique Bohler</t>
+  </si>
+  <si>
+    <t>Rue Edward Steichen 9</t>
+  </si>
+  <si>
+    <t>Rue d'Anvers 20</t>
+  </si>
+  <si>
+    <t>Rue Wurth-Paquet 7</t>
+  </si>
+  <si>
+    <t>https://www.hopitauxschuman.lu/fr/</t>
+  </si>
+  <si>
+    <t>Avenue de la Liberté 187</t>
+  </si>
+  <si>
+    <t>Avenue Lucien Salentiny 120</t>
+  </si>
+  <si>
+    <t>Rue Nicolas Ernest Barblé 4</t>
+  </si>
+  <si>
+    <t>Rue Grande-Duchesse Charlotte 10</t>
+  </si>
+  <si>
+    <t>Rue d'Eich 78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -164,8 +169,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -181,10 +187,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,220 +486,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA90C6D4-C3FC-C54A-AA8E-1FD120BC0EAE}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>9080</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>9515</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>1460</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>1210</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>2540</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>4350</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>9080</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>9515</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>1460</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>1210</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C9">
+        <v>4240</v>
+      </c>
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>2540</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>1130</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>4350</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
+      <c r="C10">
+        <v>4602</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>4240</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>4602</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="C11">
         <v>3488</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
+      <c r="D11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/daten/notfallstationen_lu.xlsx
+++ b/daten/notfallstationen_lu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AB0344-D1FF-B54C-A0EE-6A70F3908297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95EEA36-7F4D-DD46-832D-4CDB5C74B471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7900" yWindow="-20180" windowWidth="27440" windowHeight="16240" xr2:uid="{703E470E-EBFD-0D4E-94A4-7298E40D5768}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/daten/notfallstationen_lu.xlsx
+++ b/daten/notfallstationen_lu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95EEA36-7F4D-DD46-832D-4CDB5C74B471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47599AE3-B7BF-1642-AEF0-0E3E149AE1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="-20180" windowWidth="27440" windowHeight="16240" xr2:uid="{703E470E-EBFD-0D4E-94A4-7298E40D5768}"/>
+    <workbookView xWindow="460" yWindow="-21060" windowWidth="33600" windowHeight="19000" xr2:uid="{703E470E-EBFD-0D4E-94A4-7298E40D5768}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Klinik</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Rue Wurth-Paquet 7</t>
   </si>
   <si>
-    <t>https://www.hopitauxschuman.lu/fr/</t>
-  </si>
-  <si>
     <t>Avenue de la Liberté 187</t>
   </si>
   <si>
@@ -126,6 +123,33 @@
   </si>
   <si>
     <t>Rue d'Eich 78</t>
+  </si>
+  <si>
+    <t>Personalbestand</t>
+  </si>
+  <si>
+    <t>https://www.hopitauxschuman.lu/de/die-hrs-gruppe/uber-uns/die-hopitaux-robert-schuman/</t>
+  </si>
+  <si>
+    <t>https://www.chem.lu/le-chem/jobs-stages</t>
+  </si>
+  <si>
+    <t>pro Jahr</t>
+  </si>
+  <si>
+    <t>https://www.chl.lu/fr/content/le-chl-en-bref</t>
+  </si>
+  <si>
+    <t>https://www.chdn.lu/le-chdn/</t>
+  </si>
+  <si>
+    <t>https://www.chdn.lu/le-chdn/chiffres-cles-et-rapport-annuel/</t>
+  </si>
+  <si>
+    <t>Patienten Total</t>
+  </si>
+  <si>
+    <t>Personalbestand pro Standort</t>
   </si>
 </sst>
 </file>
@@ -169,9 +193,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -486,21 +511,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA90C6D4-C3FC-C54A-AA8E-1FD120BC0EAE}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,13 +540,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>9080</v>
@@ -527,13 +563,28 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1200</v>
+      </c>
+      <c r="F2">
+        <v>600</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2">
+        <v>51500</v>
+      </c>
+      <c r="I2">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>9515</v>
@@ -541,13 +592,28 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1200</v>
+      </c>
+      <c r="F3">
+        <v>600</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>51500</v>
+      </c>
+      <c r="I3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>1460</v>
@@ -555,13 +621,29 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f>2491</f>
+        <v>2491</v>
+      </c>
+      <c r="F4">
+        <v>1241</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>175000</v>
+      </c>
+      <c r="I4">
+        <v>87500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>1210</v>
@@ -569,8 +651,24 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f>2491</f>
+        <v>2491</v>
+      </c>
+      <c r="F5">
+        <v>1250</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>175000</v>
+      </c>
+      <c r="I5">
+        <v>87500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -583,14 +681,27 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>2556</v>
+      </c>
+      <c r="F6">
+        <v>1002</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <f>I6*3</f>
+        <v>135000</v>
+      </c>
+      <c r="I6">
+        <v>45000</v>
+      </c>
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -603,11 +714,27 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>2556</v>
+      </c>
+      <c r="F7">
+        <v>1002</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <f>I7*3</f>
+        <v>135000</v>
+      </c>
+      <c r="I7">
+        <v>45000</v>
+      </c>
+      <c r="J7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -620,11 +747,27 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>2556</v>
+      </c>
+      <c r="F8">
+        <v>552</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <f>I8*3</f>
+        <v>135000</v>
+      </c>
+      <c r="I8">
+        <v>45000</v>
+      </c>
+      <c r="J8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -637,13 +780,31 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>2325</v>
+      </c>
+      <c r="F9">
+        <v>1023</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>140000</v>
+      </c>
+      <c r="I9">
+        <v>47000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>4602</v>
@@ -651,8 +812,23 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>2325</v>
+      </c>
+      <c r="F10">
+        <v>651</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>140000</v>
+      </c>
+      <c r="I10">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -664,6 +840,21 @@
       </c>
       <c r="D11" t="s">
         <v>14</v>
+      </c>
+      <c r="E11">
+        <v>2325</v>
+      </c>
+      <c r="F11">
+        <v>651</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11">
+        <v>140000</v>
+      </c>
+      <c r="I11">
+        <v>47000</v>
       </c>
     </row>
   </sheetData>

--- a/daten/notfallstationen_lu.xlsx
+++ b/daten/notfallstationen_lu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47599AE3-B7BF-1642-AEF0-0E3E149AE1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF447B2-86CF-9F4A-9B63-5FCE4B226337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="-21060" windowWidth="33600" windowHeight="19000" xr2:uid="{703E470E-EBFD-0D4E-94A4-7298E40D5768}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{703E470E-EBFD-0D4E-94A4-7298E40D5768}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Klinik</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Personalbestand pro Standort</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>LU</t>
   </si>
 </sst>
 </file>
@@ -193,10 +199,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -511,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA90C6D4-C3FC-C54A-AA8E-1FD120BC0EAE}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,10 +529,11 @@
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,11 +552,14 @@
       <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -570,16 +579,19 @@
         <v>600</v>
       </c>
       <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>51500</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>26000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -599,16 +611,19 @@
         <v>600</v>
       </c>
       <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>51500</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>26000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -629,16 +644,19 @@
         <v>1241</v>
       </c>
       <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>175000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>87500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -659,16 +677,19 @@
         <v>1250</v>
       </c>
       <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>175000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>87500</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -687,21 +708,24 @@
       <c r="F6">
         <v>1002</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="H6">
-        <f>I6*3</f>
+      <c r="I6">
+        <f>J6*3</f>
         <v>135000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>45000</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -720,21 +744,24 @@
       <c r="F7">
         <v>1002</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="H7">
-        <f>I7*3</f>
+      <c r="I7">
+        <f>J7*3</f>
         <v>135000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>45000</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -753,21 +780,24 @@
       <c r="F8">
         <v>552</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="H8">
-        <f>I8*3</f>
+      <c r="I8">
+        <f>J8*3</f>
         <v>135000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>45000</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -787,19 +817,22 @@
         <v>1023</v>
       </c>
       <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>140000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>47000</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -819,16 +852,19 @@
         <v>651</v>
       </c>
       <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
         <v>31</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>140000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>47000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -848,12 +884,15 @@
         <v>651</v>
       </c>
       <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>140000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>47000</v>
       </c>
     </row>
